--- a/xls/square_un_2_tri3_2.xlsx
+++ b/xls/square_un_2_tri3_2.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -485,13 +485,13 @@
         <v>24</v>
       </c>
       <c r="I2">
-        <v>32.04961023683958</v>
+        <v>32.347173958835704</v>
       </c>
       <c r="J2">
-        <v>16.437959340344953</v>
+        <v>16.54204513392478</v>
       </c>
       <c r="K2">
-        <v>16.04908758749199</v>
+        <v>15.946315927557537</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -520,13 +520,13 @@
         <v>54</v>
       </c>
       <c r="I3">
-        <v>0.010915096051224118</v>
+        <v>-0.22138104298002625</v>
       </c>
       <c r="J3">
-        <v>0.004892739012094861</v>
+        <v>-0.15539801164462974</v>
       </c>
       <c r="K3">
-        <v>3.3346186921776795</v>
+        <v>1.1414173672897814</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>96</v>
       </c>
       <c r="I4">
-        <v>-8.288698232319846e-8</v>
+        <v>-2.713377066188824e-7</v>
       </c>
       <c r="J4">
-        <v>-7.288357121386814e-8</v>
+        <v>-3.211874811595769e-7</v>
       </c>
       <c r="K4">
-        <v>0.8638926809873997</v>
+        <v>1.2709861604769839</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -590,13 +590,13 @@
         <v>150</v>
       </c>
       <c r="I5">
-        <v>-6.2015143429565e-8</v>
+        <v>-3.680219098785957e-8</v>
       </c>
       <c r="J5">
-        <v>-5.141312809420697e-8</v>
+        <v>-2.4220357765470354e-8</v>
       </c>
       <c r="K5">
-        <v>0.7496019389970702</v>
+        <v>0.46774640517922755</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -625,13 +625,13 @@
         <v>216</v>
       </c>
       <c r="I6">
-        <v>-6.152264955755466e-8</v>
+        <v>-2.6586444746010613e-8</v>
       </c>
       <c r="J6">
-        <v>-4.812735612934969e-8</v>
+        <v>-1.71280293475693e-8</v>
       </c>
       <c r="K6">
-        <v>0.7044402203726746</v>
+        <v>0.3731327607163172</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -660,13 +660,13 @@
         <v>294</v>
       </c>
       <c r="I7">
-        <v>-2.7801745454990293e-8</v>
+        <v>-2.1084028323232178e-8</v>
       </c>
       <c r="J7">
-        <v>-2.1526152430324738e-8</v>
+        <v>-1.3427404820864208e-8</v>
       </c>
       <c r="K7">
-        <v>0.5313526513770497</v>
+        <v>0.3134732681218892</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -695,13 +695,13 @@
         <v>384</v>
       </c>
       <c r="I8">
-        <v>-2.7698991197711346e-8</v>
+        <v>-1.7699166391716973e-8</v>
       </c>
       <c r="J8">
-        <v>-2.1053460153603335e-8</v>
+        <v>-1.1185818136019714e-8</v>
       </c>
       <c r="K8">
-        <v>0.5173167321157207</v>
+        <v>0.27221508371483133</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -730,13 +730,13 @@
         <v>486</v>
       </c>
       <c r="I9">
-        <v>-2.3239893960980575e-8</v>
+        <v>-1.551889167555042e-8</v>
       </c>
       <c r="J9">
-        <v>-1.7540212431646235e-8</v>
+        <v>-9.753971178578148e-9</v>
       </c>
       <c r="K9">
-        <v>0.477518024943589</v>
+        <v>0.24295258677290513</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -744,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -765,13 +765,13 @@
         <v>600</v>
       </c>
       <c r="I10">
-        <v>-2.3040742681333396e-8</v>
+        <v>-1.410737832057721e-8</v>
       </c>
       <c r="J10">
-        <v>-1.7253484787922182e-8</v>
+        <v>-8.829475816847762e-9</v>
       </c>
       <c r="K10">
-        <v>0.4704022009666377</v>
+        <v>0.22229711767130522</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -800,13 +800,13 @@
         <v>726</v>
       </c>
       <c r="I11">
-        <v>-2.1570273548172957e-8</v>
+        <v>-1.309471053290252e-8</v>
       </c>
       <c r="J11">
-        <v>-1.607162983100256e-8</v>
+        <v>-8.169454984301812e-9</v>
       </c>
       <c r="K11">
-        <v>0.4542025131133614</v>
+        <v>0.2068287174813985</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -814,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -835,13 +835,13 @@
         <v>864</v>
       </c>
       <c r="I12">
-        <v>-2.119626601679672e-8</v>
+        <v>-1.2329430503133126e-8</v>
       </c>
       <c r="J12">
-        <v>-1.5723370909410303e-8</v>
+        <v>-7.672642191635818e-9</v>
       </c>
       <c r="K12">
-        <v>0.4479003316071345</v>
+        <v>0.1947918845150406</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -870,13 +870,13 @@
         <v>1014</v>
       </c>
       <c r="I13">
-        <v>-2.0626789684675438e-8</v>
+        <v>-1.1727967439708098e-8</v>
       </c>
       <c r="J13">
-        <v>-1.525038037250885e-8</v>
+        <v>-7.283576216421227e-9</v>
       </c>
       <c r="K13">
-        <v>0.44050628171950146</v>
+        <v>0.18516253971817195</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -905,13 +905,13 @@
         <v>1176</v>
       </c>
       <c r="I14">
-        <v>-2.0331748764300647e-8</v>
+        <v>-1.1234136488224156e-8</v>
       </c>
       <c r="J14">
-        <v>-1.499032631823954e-8</v>
+        <v>-6.96538937223807e-9</v>
       </c>
       <c r="K14">
-        <v>0.4359384833247314</v>
+        <v>0.17720654907556532</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -940,13 +940,13 @@
         <v>1350</v>
       </c>
       <c r="I15">
-        <v>-2.0033373537107752e-8</v>
+        <v>-1.081889938496957e-8</v>
       </c>
       <c r="J15">
-        <v>-1.4736456158864135e-8</v>
+        <v>-6.698744337459676e-9</v>
       </c>
       <c r="K15">
-        <v>0.43164536504622497</v>
+        <v>0.17049789168656676</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -975,13 +975,13 @@
         <v>1536</v>
       </c>
       <c r="I16">
-        <v>-1.9820446840442344e-8</v>
+        <v>-1.0461134078978707e-8</v>
       </c>
       <c r="J16">
-        <v>-1.4551185268485608e-8</v>
+        <v>-6.469789704920465e-9</v>
       </c>
       <c r="K16">
-        <v>0.42836107362378195</v>
+        <v>0.16473447078312325</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1010,13 +1010,13 @@
         <v>1734</v>
       </c>
       <c r="I17">
-        <v>-1.9624834644325355e-8</v>
+        <v>-1.0146660327247828e-8</v>
       </c>
       <c r="J17">
-        <v>-1.4383455254301441e-8</v>
+        <v>-6.2691954615380214e-9</v>
       </c>
       <c r="K17">
-        <v>0.42542156764698524</v>
+        <v>0.15969661026172646</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1045,13 +1045,13 @@
         <v>1944</v>
       </c>
       <c r="I18">
-        <v>-1.9466994915770984e-8</v>
+        <v>-9.867014902345818e-9</v>
       </c>
       <c r="J18">
-        <v>-1.4247048236678819e-8</v>
+        <v>-6.091335142157743e-9</v>
       </c>
       <c r="K18">
-        <v>0.4229793268394168</v>
+        <v>0.15524439962070608</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1080,13 +1080,13 @@
         <v>2166</v>
       </c>
       <c r="I19">
-        <v>-1.9327235267315873e-8</v>
+        <v>-9.614906668718425e-9</v>
       </c>
       <c r="J19">
-        <v>-1.4126852287584418e-8</v>
+        <v>-5.931433107773837e-9</v>
       </c>
       <c r="K19">
-        <v>0.42082569071337</v>
+        <v>0.15126108646864134</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1094,7 +1094,7 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1115,13 +1115,13 @@
         <v>2400</v>
       </c>
       <c r="I20">
-        <v>-1.9207569552296406e-8</v>
+        <v>-9.385486794845557e-9</v>
       </c>
       <c r="J20">
-        <v>-1.4023707866635389e-8</v>
+        <v>-5.786284705286909e-9</v>
       </c>
       <c r="K20">
-        <v>0.4189593631886461</v>
+        <v>0.14766415538664843</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1150,13 +1150,13 @@
         <v>2646</v>
       </c>
       <c r="I21">
-        <v>-1.9099754409851023e-8</v>
+        <v>-9.1751754559779e-9</v>
       </c>
       <c r="J21">
-        <v>-1.393120060482088e-8</v>
+        <v>-5.6535343237325704e-9</v>
       </c>
       <c r="K21">
-        <v>0.4172863925935946</v>
+        <v>0.14439259588160874</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1185,13 +1185,13 @@
         <v>2904</v>
       </c>
       <c r="I22">
-        <v>-1.9004656191804764e-8</v>
+        <v>-8.980795144803307e-9</v>
       </c>
       <c r="J22">
-        <v>-1.3849592509915109e-8</v>
+        <v>-5.531107839341597e-9</v>
       </c>
       <c r="K22">
-        <v>0.4158020355395506</v>
+        <v>0.14139320197611838</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1220,13 +1220,13 @@
         <v>3174</v>
       </c>
       <c r="I23">
-        <v>-1.8918487501859382e-8</v>
+        <v>-8.800222701474252e-9</v>
       </c>
       <c r="J23">
-        <v>-1.3775861620617756e-8</v>
+        <v>-5.417603119951396e-9</v>
       </c>
       <c r="K23">
-        <v>0.41446008870928874</v>
+        <v>0.13862794562691785</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1234,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1255,13 +1255,293 @@
         <v>3456</v>
       </c>
       <c r="I24">
-        <v>-1.8840716899119692e-8</v>
+        <v>-8.631550107610261e-9</v>
       </c>
       <c r="J24">
-        <v>-1.3709397372970083e-8</v>
+        <v>-5.3117744955348145e-9</v>
       </c>
       <c r="K24">
-        <v>0.41324746927614986</v>
+        <v>0.13606470254160252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-8.473229376501582e-9</v>
+      </c>
+      <c r="J25">
+        <v>-5.212613906356979e-9</v>
+      </c>
+      <c r="K25">
+        <v>0.13367647961078374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-8.324151724394595e-9</v>
+      </c>
+      <c r="J26">
+        <v>-5.119390247535936e-9</v>
+      </c>
+      <c r="K26">
+        <v>0.13144331519771965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-8.183201520812704e-9</v>
+      </c>
+      <c r="J27">
+        <v>-5.03138104492155e-9</v>
+      </c>
+      <c r="K27">
+        <v>0.12934612876496282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-8.04954534571958e-9</v>
+      </c>
+      <c r="J28">
+        <v>-4.9480426106788134e-9</v>
+      </c>
+      <c r="K28">
+        <v>0.1273700062171325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-7.922477263173719e-9</v>
+      </c>
+      <c r="J29">
+        <v>-4.868912597996015e-9</v>
+      </c>
+      <c r="K29">
+        <v>0.12550252243696663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-7.801318145538818e-9</v>
+      </c>
+      <c r="J30">
+        <v>-4.793552864681589e-9</v>
+      </c>
+      <c r="K30">
+        <v>0.12373190440051114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-7.685560804769923e-9</v>
+      </c>
+      <c r="J31">
+        <v>-4.721634912578521e-9</v>
+      </c>
+      <c r="K31">
+        <v>0.12204902300516716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-7.574725005775994e-9</v>
+      </c>
+      <c r="J32">
+        <v>-4.652844708442252e-9</v>
+      </c>
+      <c r="K32">
+        <v>0.12044560971878696</v>
       </c>
     </row>
   </sheetData>
